--- a/Weekly Forecasts/Week_Wild_Card.xlsx
+++ b/Weekly Forecasts/Week_Wild_Card.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NFLPred2014\NFLPrediction2014\Weekly Forecasts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Saturday" sheetId="1" r:id="rId1"/>
     <sheet name="Sunday" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -74,12 +79,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#0%"/>
     <numFmt numFmtId="165" formatCode="#0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +150,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -191,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,9 +236,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,6 +271,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,24 +447,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -466,24 +480,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>0.3987498</v>
+        <v>0.39874979999999999</v>
       </c>
       <c r="C2" s="3">
-        <v>0.6012502</v>
+        <v>0.60125019999999996</v>
       </c>
       <c r="E2" s="3">
-        <v>0.5564649</v>
+        <v>0.55646490000000004</v>
       </c>
       <c r="F2" s="3">
-        <v>0.4435351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.44353510000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -491,16 +505,16 @@
         <v>16.8211336</v>
       </c>
       <c r="C3" s="4">
-        <v>20.685481</v>
+        <v>20.685480999999999</v>
       </c>
       <c r="E3" s="4">
-        <v>26.0173076</v>
+        <v>26.017307599999999</v>
       </c>
       <c r="F3" s="4">
         <v>23.5248968</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -517,7 +531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -534,7 +548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -551,7 +565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -568,7 +582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -585,7 +599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -602,7 +616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -625,24 +639,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" customWidth="1"/>
+    <col min="2" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="1.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
@@ -659,15 +672,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>0.5722842</v>
+        <v>0.57228420000000002</v>
       </c>
       <c r="C2" s="3">
-        <v>0.4277158</v>
+        <v>0.42771579999999998</v>
       </c>
       <c r="E2" s="3">
         <v>0.6021685</v>
@@ -676,7 +689,7 @@
         <v>0.3978315</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -684,16 +697,16 @@
         <v>27.0411672</v>
       </c>
       <c r="C3" s="4">
-        <v>23.7381556</v>
+        <v>23.738155599999999</v>
       </c>
       <c r="E3" s="4">
         <v>23.6824908</v>
       </c>
       <c r="F3" s="4">
-        <v>19.323166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>19.323166000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -710,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -744,7 +757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -761,7 +774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -778,7 +791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -795,7 +808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
